--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1576734.265461412</v>
+        <v>-1579595.079253704</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>110.096520216718</v>
+        <v>143.5013688276111</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>102.8511758218334</v>
       </c>
       <c r="W3" t="n">
-        <v>134.4227234143551</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.0690642382299</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>99.29308295490432</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>75.61927560215634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>47.32891336229427</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>213.4667891051702</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.6421164534003</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>163.5176918809203</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>93.69312609777442</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658358</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819519</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>101.9255763047096</v>
+        <v>127.8724504177535</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>143.7422724234875</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>44.00401502694693</v>
       </c>
       <c r="H9" t="n">
-        <v>93.8339267169637</v>
+        <v>93.83392671696367</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906624</v>
+        <v>23.79630926906611</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858446</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346715</v>
@@ -1269,7 +1269,7 @@
         <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>68.1367878863324</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>56.05869832974957</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169636</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
         <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>140.1760114441846</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>112.1382188876859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>55.52079624060472</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.665762779849952</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722613</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>59.44001103519371</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541852</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677.2692571593335</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>410.8916005921556</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921556</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917556</v>
@@ -4334,16 +4334,16 @@
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="W2" t="n">
-        <v>943.6469137265115</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="X2" t="n">
-        <v>943.6469137265115</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y2" t="n">
-        <v>943.6469137265115</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.9779587411641</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="C3" t="n">
-        <v>258.9779587411641</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D3" t="n">
-        <v>258.9779587411641</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742757</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="V3" t="n">
-        <v>394.758487442533</v>
+        <v>587.184182860382</v>
       </c>
       <c r="W3" t="n">
-        <v>258.9779587411641</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="X3" t="n">
-        <v>258.9779587411641</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="Y3" t="n">
-        <v>258.9779587411641</v>
+        <v>332.9468261321803</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.0508887469439</v>
+        <v>68.64161973166586</v>
       </c>
       <c r="C4" t="n">
-        <v>313.0508887469439</v>
+        <v>68.64161973166586</v>
       </c>
       <c r="D4" t="n">
-        <v>313.0508887469439</v>
+        <v>68.64161973166586</v>
       </c>
       <c r="E4" t="n">
-        <v>313.0508887469439</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0508887469439</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407075</v>
+        <v>563.0088271968613</v>
       </c>
       <c r="V4" t="n">
-        <v>671.3785036348206</v>
+        <v>563.0088271968613</v>
       </c>
       <c r="W4" t="n">
-        <v>571.0824602460284</v>
+        <v>296.6311706296832</v>
       </c>
       <c r="X4" t="n">
-        <v>571.0824602460284</v>
+        <v>68.64161973166586</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.6993535771836</v>
+        <v>68.64161973166586</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180.334565405576</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>180.334565405576</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>46.96951069551291</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>121.6535314649671</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>268.3979551252638</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374622</v>
+        <v>840.076354622418</v>
       </c>
       <c r="U6" t="n">
-        <v>858.0464416374622</v>
+        <v>840.076354622418</v>
       </c>
       <c r="V6" t="n">
-        <v>642.4234223393105</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="W6" t="n">
-        <v>388.1860656111088</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="X6" t="n">
-        <v>180.334565405576</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y6" t="n">
-        <v>180.334565405576</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.5157475554171</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>337.5795646275102</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>337.5795646275102</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>734.5052984534344</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>734.5052984534344</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U7" t="n">
-        <v>734.5052984534344</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="V7" t="n">
-        <v>734.5052984534344</v>
+        <v>367.9149609686635</v>
       </c>
       <c r="W7" t="n">
-        <v>734.5052984534344</v>
+        <v>367.9149609686635</v>
       </c>
       <c r="X7" t="n">
-        <v>506.5157475554171</v>
+        <v>367.9149609686635</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.5157475554171</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>775.428359159743</v>
+        <v>153.0162055982391</v>
       </c>
       <c r="C8" t="n">
-        <v>775.428359159743</v>
+        <v>153.0162055982391</v>
       </c>
       <c r="D8" t="n">
-        <v>775.428359159743</v>
+        <v>153.0162055982391</v>
       </c>
       <c r="E8" t="n">
-        <v>775.428359159743</v>
+        <v>153.0162055982391</v>
       </c>
       <c r="F8" t="n">
-        <v>364.4424543701354</v>
+        <v>58.37668428735581</v>
       </c>
       <c r="G8" t="n">
-        <v>352.5821724745964</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181668</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181668</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229152</v>
+        <v>166.4989367229159</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677472</v>
+        <v>397.0601716677488</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937535</v>
+        <v>719.9935330937565</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721571</v>
+        <v>1110.988557721575</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999413</v>
+        <v>1512.924098999419</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830548</v>
+        <v>1879.125171830554</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271714</v>
+        <v>2157.168314271721</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257573</v>
+        <v>2317.794388257581</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590834</v>
+        <v>2325.820119590842</v>
       </c>
       <c r="S8" t="n">
-        <v>2222.864992010319</v>
+        <v>2196.656028259778</v>
       </c>
       <c r="T8" t="n">
-        <v>2222.864992010319</v>
+        <v>1987.052678512937</v>
       </c>
       <c r="U8" t="n">
-        <v>2222.864992010319</v>
+        <v>1987.052678512937</v>
       </c>
       <c r="V8" t="n">
-        <v>1891.802104666749</v>
+        <v>1655.989791169367</v>
       </c>
       <c r="W8" t="n">
-        <v>1539.033449396635</v>
+        <v>1303.221135899252</v>
       </c>
       <c r="X8" t="n">
-        <v>1165.567691135555</v>
+        <v>929.7553776381726</v>
       </c>
       <c r="Y8" t="n">
-        <v>775.428359159743</v>
+        <v>539.6160456623609</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>927.5603247865126</v>
+        <v>692.4082165547786</v>
       </c>
       <c r="C9" t="n">
-        <v>753.1072955053857</v>
+        <v>517.9551872736516</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9130809362064</v>
+        <v>369.0207776124004</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6756259307508</v>
+        <v>209.7833226069449</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576358</v>
+        <v>209.7833226069449</v>
       </c>
       <c r="G9" t="n">
         <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117652</v>
+        <v>70.55307842117656</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181668</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977877</v>
+        <v>223.9894559067841</v>
       </c>
       <c r="K9" t="n">
-        <v>267.289305341281</v>
+        <v>392.1194303282869</v>
       </c>
       <c r="L9" t="n">
-        <v>539.6833456336944</v>
+        <v>664.513470620701</v>
       </c>
       <c r="M9" t="n">
-        <v>876.9112108303573</v>
+        <v>1001.741335817365</v>
       </c>
       <c r="N9" t="n">
-        <v>1452.551690429089</v>
+        <v>1362.303264068701</v>
       </c>
       <c r="O9" t="n">
-        <v>1760.175618089975</v>
+        <v>1669.927191729589</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.643459247534</v>
+        <v>1997.684836227395</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590834</v>
+        <v>2307.861496570696</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590834</v>
+        <v>2325.820119590842</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160688</v>
+        <v>2188.151005160697</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.72181866102</v>
+        <v>1993.721818661028</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505269</v>
+        <v>1765.624817505278</v>
       </c>
       <c r="V9" t="n">
-        <v>1765.624817505269</v>
+        <v>1530.472709273535</v>
       </c>
       <c r="W9" t="n">
-        <v>1511.387460777067</v>
+        <v>1276.235352545333</v>
       </c>
       <c r="X9" t="n">
-        <v>1303.535960571535</v>
+        <v>1068.383852339801</v>
       </c>
       <c r="Y9" t="n">
-        <v>1095.775661806581</v>
+        <v>860.6235535748467</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.7888472875313</v>
+        <v>223.8396790864744</v>
       </c>
       <c r="C10" t="n">
-        <v>570.8526643596244</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="D10" t="n">
-        <v>420.7360249472887</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="E10" t="n">
-        <v>420.7360249472887</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="F10" t="n">
-        <v>420.7360249472887</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="G10" t="n">
-        <v>252.6616702637132</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="H10" t="n">
-        <v>103.1413501996445</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181668</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909504</v>
+        <v>65.89540801909543</v>
       </c>
       <c r="K10" t="n">
-        <v>227.577903973601</v>
+        <v>227.5779039736017</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632602</v>
+        <v>490.0022680632614</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794031</v>
+        <v>777.0810884794048</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620617</v>
+        <v>1062.768432620619</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257112</v>
+        <v>1310.630639257115</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325114</v>
+        <v>1499.198894325117</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718227</v>
+        <v>1546.318699718231</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718227</v>
+        <v>1439.783439600086</v>
       </c>
       <c r="S10" t="n">
-        <v>1546.318699718227</v>
+        <v>1439.783439600086</v>
       </c>
       <c r="T10" t="n">
-        <v>1546.318699718227</v>
+        <v>1216.429428829627</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.195568222509</v>
+        <v>927.3062973339087</v>
       </c>
       <c r="V10" t="n">
-        <v>1257.195568222509</v>
+        <v>672.6218091280218</v>
       </c>
       <c r="W10" t="n">
-        <v>967.7783981855487</v>
+        <v>672.6218091280218</v>
       </c>
       <c r="X10" t="n">
-        <v>739.7888472875313</v>
+        <v>444.6322582300045</v>
       </c>
       <c r="Y10" t="n">
-        <v>739.7888472875313</v>
+        <v>223.8396790864744</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5069,10 +5069,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432835</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049279</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925922</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5258,52 +5258,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,16 +5604,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,25 +5774,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,19 +6060,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
         <v>680.0291294438176</v>
@@ -6133,16 +6133,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6206,19 +6206,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2442.250191883442</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2259.395357538347</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2259.395357538347</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,10 +6494,10 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6506,7 +6506,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,31 +6917,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273902</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7072,28 +7072,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7102,19 +7102,19 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656814</v>
@@ -7318,25 +7318,25 @@
         <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
@@ -7804,28 +7804,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775173</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>28.18495819153179</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>217.2510619670669</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>28.18745944287195</v>
+        <v>101.2074628168593</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864797</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>238.7086800719762</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>239.144448500695</v>
+        <v>205.7395998898019</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,22 +22711,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.2299153816867</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.316634604501397e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.257951202384561</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.5498640939298</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>139.9994244361421</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>84.77391660561915</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>61.70948393027174</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>121.5862749664509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26338,19 +26338,19 @@
         <v>141250.654945751</v>
       </c>
       <c r="K2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262497</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512963</v>
+        <v>331437.5228512983</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424133</v>
+        <v>563905.7843424116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201159</v>
+        <v>99845.14336201205</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569562</v>
+        <v>147342.6769569558</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.700806876371518e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169017.9536818821</v>
+        <v>169017.9536818822</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>157189.0051277998</v>
+        <v>157189.0051277992</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.891514887</v>
       </c>
       <c r="M4" t="n">
         <v>19157.89151488701</v>
       </c>
       <c r="N4" t="n">
+        <v>19157.89151488697</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19157.89151488703</v>
+      </c>
+      <c r="P4" t="n">
         <v>19157.89151488699</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.89151488701</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19157.89151488698</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543566</v>
+        <v>88290.79546543583</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-793677.2388513162</v>
+        <v>-794037.3218670338</v>
       </c>
       <c r="C6" t="n">
-        <v>-170592.8590970363</v>
+        <v>-170592.8590970364</v>
       </c>
       <c r="D6" t="n">
-        <v>-433235.0137182823</v>
+        <v>-433235.0137182837</v>
       </c>
       <c r="E6" t="n">
-        <v>-534944.691472363</v>
+        <v>-534979.4293977969</v>
       </c>
       <c r="F6" t="n">
-        <v>28961.09287005046</v>
+        <v>28926.35494461475</v>
       </c>
       <c r="G6" t="n">
-        <v>28961.09287005047</v>
+        <v>28926.35494461472</v>
       </c>
       <c r="H6" t="n">
-        <v>28961.09287005046</v>
+        <v>28926.35494461475</v>
       </c>
       <c r="I6" t="n">
-        <v>28961.09287005047</v>
+        <v>28926.35494461472</v>
       </c>
       <c r="J6" t="n">
-        <v>-40038.06154906368</v>
+        <v>-40072.79947449945</v>
       </c>
       <c r="K6" t="n">
-        <v>28961.0928700504</v>
+        <v>28926.35494461477</v>
       </c>
       <c r="L6" t="n">
-        <v>-78484.84100456437</v>
+        <v>-78484.84100456485</v>
       </c>
       <c r="M6" t="n">
-        <v>-125982.374599509</v>
+        <v>-125982.3745995085</v>
       </c>
       <c r="N6" t="n">
-        <v>21360.30235744728</v>
+        <v>21360.30235744723</v>
       </c>
       <c r="O6" t="n">
-        <v>21360.30235744716</v>
+        <v>21360.30235744725</v>
       </c>
       <c r="P6" t="n">
-        <v>21360.30235744728</v>
+        <v>21360.30235744725</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896785</v>
+        <v>885.8132865896802</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977085</v>
+        <v>581.4550298977106</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.328619431368468e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.126008595464397e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202002</v>
+        <v>271.7582728202018</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519955</v>
+        <v>482.162213751994</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962024</v>
+        <v>317.7411498962044</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019401</v>
+        <v>591.253258201938</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962027</v>
+        <v>317.7411498962046</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019398</v>
+        <v>591.253258201938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.328619431368468e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962024</v>
+        <v>317.7411498962044</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019401</v>
+        <v>591.253258201938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>174.1254945737338</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>129.9494113275919</v>
       </c>
       <c r="W3" t="n">
-        <v>117.2722597465645</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>99.36489840833927</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.9653777499385</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>147.5120742225825</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>19.3337980442551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>15.07704779019346</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>55.06696147117449</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>313.182919643937</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.1881841181503</v>
+        <v>73.18818411815002</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.94687411304409</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0607682327524</v>
@@ -27935,16 +27935,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.702793141151261</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>91.43416789718403</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>99.11003321229543</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>51.35455771162909</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169638</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.178826391195</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29572,13 +29572,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551469</v>
+        <v>3.561058438551475</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381524</v>
+        <v>36.46968973381531</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522556</v>
+        <v>137.2877054522559</v>
       </c>
       <c r="J8" t="n">
-        <v>302.240383649008</v>
+        <v>302.2403836490085</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528917</v>
+        <v>452.9799873528926</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417113</v>
+        <v>561.9617295417124</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483009</v>
+        <v>625.2907025483022</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368354</v>
+        <v>635.4085598368366</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884892</v>
+        <v>599.9982849884904</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867498</v>
+        <v>512.0846547867508</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561251</v>
+        <v>384.5542494561259</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406589</v>
+        <v>223.6923371406593</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849167</v>
+        <v>81.14761916849183</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475906</v>
+        <v>15.58853331475909</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841174</v>
+        <v>0.284884675084118</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079686</v>
+        <v>1.905334239079689</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953276</v>
+        <v>18.40151751953279</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234884</v>
+        <v>65.60032358234896</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474365</v>
+        <v>180.0123019474368</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657754</v>
+        <v>307.669695965776</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247362</v>
+        <v>413.699875024737</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913747</v>
+        <v>482.7682411913756</v>
       </c>
       <c r="N9" t="n">
-        <v>495.545680013975</v>
+        <v>495.5456800139759</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059461</v>
+        <v>453.327484505947</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730323</v>
+        <v>363.835272373033</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726982</v>
+        <v>243.2142442726986</v>
       </c>
       <c r="R9" t="n">
-        <v>118.297857405316</v>
+        <v>118.2978574053162</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799327</v>
+        <v>35.39074781799333</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150134</v>
+        <v>7.679834060150148</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815583</v>
+        <v>0.1253509367815586</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719092</v>
+        <v>1.597368221719095</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401157</v>
+        <v>14.2020556440116</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587962</v>
+        <v>48.03721888587972</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755398</v>
+        <v>112.93393327554</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051818</v>
+        <v>185.5851443051821</v>
       </c>
       <c r="L10" t="n">
-        <v>237.485089981764</v>
+        <v>237.4850899817644</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191118</v>
+        <v>250.3947295191123</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108863</v>
+        <v>244.4409025108868</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753496</v>
+        <v>225.78073737535</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522799</v>
+        <v>193.1944256522803</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750414</v>
+        <v>133.7578062750417</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020571</v>
+        <v>71.82348386020584</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577726</v>
+        <v>27.83777164577731</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527028</v>
+        <v>6.825118765527042</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0871291757301324</v>
+        <v>0.08712917573013257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>353.1300748477945</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138015</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -33023,28 +33023,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238086</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159419</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827497113</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26.13373767211355</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223217</v>
+        <v>121.1944791223223</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079112</v>
+        <v>232.890136307912</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717241</v>
+        <v>326.1953145717252</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210282</v>
+        <v>394.9444693210295</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402444</v>
+        <v>405.9954962402457</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668025</v>
+        <v>369.9000735668036</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314802</v>
+        <v>280.8516590314812</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816757</v>
+        <v>162.2485595816764</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326526755</v>
+        <v>8.106799326527181</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528076978</v>
+        <v>179.265710621179</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914164</v>
+        <v>169.828256991417</v>
       </c>
       <c r="L9" t="n">
-        <v>275.145495244862</v>
+        <v>275.1454952448628</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693564</v>
+        <v>340.6342072693573</v>
       </c>
       <c r="N9" t="n">
-        <v>581.4550298977085</v>
+        <v>364.2039679306426</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615016</v>
+        <v>310.7312400615025</v>
       </c>
       <c r="P9" t="n">
-        <v>258.048324401574</v>
+        <v>331.0683277755621</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225257</v>
+        <v>313.3097579225262</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267307</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886703</v>
+        <v>19.57475315886725</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792989</v>
+        <v>163.3156524792992</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420801</v>
+        <v>265.0751152420805</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809524</v>
+        <v>289.9786064809529</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901149</v>
+        <v>288.5730748901154</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893893</v>
+        <v>250.3658652893897</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171734</v>
+        <v>190.4729849171738</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334706</v>
+        <v>47.59576302334732</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304683</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36671,28 +36671,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
